--- a/biology/Zoologie/Dorcadion/Dorcadion.xlsx
+++ b/biology/Zoologie/Dorcadion/Dorcadion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dorcadion Dalman, 1817 est un genre de coléoptères cérambycidés de la sous-famille des Lamiinae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Dorcadion est subdivisé en plusieurs sous-genres [1], parmi lesquels seulement Cribridorcadion et Iberodorcadion sont présents en France 
-[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Dorcadion est subdivisé en plusieurs sous-genres , parmi lesquels seulement Cribridorcadion et Iberodorcadion sont présents en France 
+.
 Acutodorcadion Danilevsky, Kasatkin &amp; Rubenian, 2004
 Carinatodorcadion Breuning, 1943
 Cribridorcadion Pic, 1901 (= Pedestredorcadion Breuning, 1943)
@@ -523,7 +537,7 @@
 Dorcadion thessalicum gioachinoi, Pesarini &amp; Sabbadini, 2007
 Dorcadion thessalicum pelionense, Breit, 1923
 Dorcadion thessalicum thessalicum, Pic, 1916
-Iberodorcadion Breuning, 1943 (= Hispanodorcadion Vives; Baeticodorcadion Vives)[5].
+Iberodorcadion Breuning, 1943 (= Hispanodorcadion Vives; Baeticodorcadion Vives).
 Maculatodorcadion Breuning, 1942
 Politodorcadion Danilevsky, 1996</t>
         </is>
